--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_418__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_418__Reeval_Halton_Modell_1.1.xlsx
@@ -6029,7 +6029,7 @@
                   <c:v>44.86762619018555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.83190536499023</c:v>
+                  <c:v>44.8318977355957</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.246916174888611</c:v>
@@ -6047,13 +6047,13 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.80917739868164</c:v>
+                  <c:v>40.80917358398438</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.06504058837891</c:v>
+                  <c:v>43.06503677368164</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-1.246916174888611</c:v>
@@ -6065,7 +6065,7 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.11154556274414</c:v>
+                  <c:v>37.11154174804688</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43.3941650390625</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.45503425598145</c:v>
+                  <c:v>30.45503807067871</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-1.246916174888611</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>10.29654693603516</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.29413223266602</c:v>
+                  <c:v>39.29412841796875</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>46.49952697753906</c:v>
@@ -6185,7 +6185,7 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.94781494140625</c:v>
+                  <c:v>18.94781684875488</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-1.246916174888611</c:v>
@@ -6197,31 +6197,31 @@
                   <c:v>41.3421630859375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.221734642982483</c:v>
+                  <c:v>1.221733927726746</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38.54666137695312</c:v>
+                  <c:v>38.54666519165039</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.91262435913086</c:v>
+                  <c:v>52.91262054443359</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>55.94272613525391</c:v>
+                  <c:v>55.94272994995117</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>40.96598434448242</c:v>
+                  <c:v>40.96598052978516</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.10642051696777</c:v>
+                  <c:v>21.10642242431641</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>42.64356994628906</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.80880331993103</c:v>
+                  <c:v>2.808802843093872</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13.70308876037598</c:v>
@@ -6236,13 +6236,13 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>39.23557662963867</c:v>
+                  <c:v>39.23558044433594</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>16.64035224914551</c:v>
+                  <c:v>16.64035415649414</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-1.246916174888611</c:v>
@@ -6257,7 +6257,7 @@
                   <c:v>-1.246916174888611</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.14124488830566</c:v>
+                  <c:v>18.1412467956543</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-1.246916174888611</c:v>
@@ -6275,10 +6275,10 @@
                   <c:v>43.07295227050781</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>50.8725471496582</c:v>
+                  <c:v>50.87254333496094</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43.17917633056641</c:v>
+                  <c:v>43.17918395996094</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>36.15736389160156</c:v>
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>44.83190536499023</v>
+        <v>44.8318977355957</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>40.80917739868164</v>
+        <v>40.80917358398438</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>43.06504058837891</v>
+        <v>43.06503677368164</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>37.11154556274414</v>
+        <v>37.11154174804688</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>30.45503425598145</v>
+        <v>30.45503807067871</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>39.29413223266602</v>
+        <v>39.29412841796875</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>18.94781494140625</v>
+        <v>18.94781684875488</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.221734642982483</v>
+        <v>1.221733927726746</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>38.54666137695312</v>
+        <v>38.54666519165039</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>52.91262435913086</v>
+        <v>52.91262054443359</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>55.94272613525391</v>
+        <v>55.94272994995117</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>40.96598434448242</v>
+        <v>40.96598052978516</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>21.10642051696777</v>
+        <v>21.10642242431641</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>2.80880331993103</v>
+        <v>2.808802843093872</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>39.23557662963867</v>
+        <v>39.23558044433594</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>16.64035224914551</v>
+        <v>16.64035415649414</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>18.14124488830566</v>
+        <v>18.1412467956543</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>50.8725471496582</v>
+        <v>50.87254333496094</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>43.17917633056641</v>
+        <v>43.17918395996094</v>
       </c>
     </row>
     <row r="100" spans="1:6">
